--- a/POmodel/src/com/TestData/Test Data.xlsx
+++ b/POmodel/src/com/TestData/Test Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="17805" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Username</t>
   </si>
@@ -36,9 +37,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -124,6 +122,27 @@
   </si>
   <si>
     <t>Sri123</t>
+  </si>
+  <si>
+    <t>Appu</t>
+  </si>
+  <si>
+    <t>Satturu</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Appi</t>
+  </si>
+  <si>
+    <t>Appi123</t>
+  </si>
+  <si>
+    <t>Apparajitha</t>
   </si>
 </sst>
 </file>
@@ -475,9 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,10 +533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,35 +551,35 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -570,110 +587,151 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>456</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>8464657</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>789</v>
       </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>579687568</v>
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>999</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
-        <v>35</v>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
